--- a/Excel/작업Attendance.xlsx
+++ b/Excel/작업Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881051F2-A0D8-4582-AC8C-F90B45EE42D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90429CA0-DE23-4630-A5EB-B4E534169740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{CAFD6D8A-5761-4B20-B7C4-D765230D70BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{CAFD6D8A-5761-4B20-B7C4-D765230D70BF}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceTypeTable" sheetId="3" r:id="rId1"/>
@@ -537,7 +537,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1942,12 +1942,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA509E0-3991-4EBD-A11A-777FE879462F}">
   <dimension ref="A1:AJ188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1964,7 +1964,7 @@
     <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="6.625" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="6.625" customWidth="1"/>
-    <col min="24" max="25" width="9" outlineLevel="1"/>
+    <col min="24" max="25" width="9" customWidth="1" outlineLevel="1"/>
     <col min="27" max="28" width="9" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
@@ -15950,7 +15950,7 @@
         <v/>
       </c>
       <c r="G162" t="str">
-        <f t="shared" ref="G162:G193" ca="1" si="77">IF(ISBLANK(H162),"",
+        <f t="shared" ref="G162:G188" ca="1" si="77">IF(ISBLANK(H162),"",
 VLOOKUP(H162,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -15965,7 +15965,7 @@
         <v>10000</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" ref="K162:K193" si="78">IF(H162="장비1상자",
+        <f t="shared" ref="K162:K188" si="78">IF(H162="장비1상자",
   IF(OR(I162&gt;3,J162&gt;5),"장비이상",""),
 IF(I162="GO",
   IF(J162&lt;100,"골드이상",""),
@@ -18258,7 +18258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E44CFE-592F-4FBA-9142-854EE45BD98B}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Attendance.xlsx
+++ b/Excel/작업Attendance.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90429CA0-DE23-4630-A5EB-B4E534169740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0AC353-B204-4CE0-ADA6-68E704664A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{CAFD6D8A-5761-4B20-B7C4-D765230D70BF}"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceTypeTable" sheetId="3" r:id="rId1"/>
     <sheet name="AttendanceRewardTable" sheetId="4" r:id="rId2"/>
-    <sheet name="AttendanceEarlyTable" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AttendanceRewardTable!$A$1:$W$188</definedName>
@@ -38,90 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ju &amp; Hoo</author>
-  </authors>
-  <commentList>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{1CEC1503-9A41-4A69-9971-55479A5FB2A0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>각</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>최대값</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> * 10</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-하드코딩한다</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="96">
   <si>
     <t>fr</t>
   </si>
@@ -451,29 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardType|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardValue|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attendanceGachaWeight|Float</t>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,45 +395,12 @@
     <t>attdRw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>DI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대값10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attdMx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>참고확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,19 +422,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -613,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,13 +471,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,10 +1828,10 @@
         <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
         <v>88</v>
@@ -2019,10 +1864,10 @@
         <v>52</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="R1" s="3" t="str">
         <f t="array" aca="1" ref="R1" ca="1">IF(SUM(IF(F:F&gt;="0",1,0))&gt;1,"보상이상","rewardType1|String")</f>
@@ -2044,10 +1889,10 @@
         <v>57</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AA1" t="s">
         <v>58</v>
@@ -2065,7 +1910,7 @@
         <v>62</v>
       </c>
       <c r="AJ1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -18252,414 +18097,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E44CFE-592F-4FBA-9142-854EE45BD98B}">
-  <dimension ref="A1:V7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="4" max="4" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="20" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" customWidth="1" outlineLevel="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="27" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A7" ca="1" si="0">IF(LEN(D2)=0,"",D2)</f>
-        <v>cu</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B7" si="1">IF(LEN(F2)=0,"",F2)</f>
-        <v>EN</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C7" si="2">IF(LEN(G2)=0,"",G2)</f>
-        <v>60</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D7" ca="1" si="3">IF(ISBLANK(E2),"",
-VLOOKUP(E2,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>cu</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="4">IF(E2="장비1상자",
-  IF(OR(F2&gt;3,G2&gt;5),"장비이상",""),
-IF(F2="GO",
-  IF(G2&lt;100,"골드이상",""),
-IF(F2="EN",
-  IF(G2&gt;29,"에너지너무많음",
-  IF(G2&gt;9,"에너지다소많음","")),"")))</f>
-        <v>에너지너무많음</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <f>I2/SUM(I:I)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="K2">
-        <f>G2*J2</f>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="5">
-        <f>SUMIF(F:F,R2,K:K)*INT(SUBSTITUTE(S$1,"평균",""))</f>
-        <v>466.66666666666663</v>
-      </c>
-      <c r="T2" s="5">
-        <f>_xlfn.MAXIFS(G:G,F:F,R2)*INT(SUBSTITUTE(T$1,"최대값",""))</f>
-        <v>1200</v>
-      </c>
-      <c r="V2" t="str">
-        <f>"{"&amp;
-""""&amp;R2&amp;""":"&amp;T2&amp;","&amp;
-""""&amp;R3&amp;""":"&amp;T3&amp;","&amp;
-""""&amp;R4&amp;""":"&amp;T4
-&amp;"}"</f>
-        <v>{"EN":1200,"GO":3750000,"DI":0}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="1"/>
-        <v>GO</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="2"/>
-        <v>125000</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3">
-        <v>125000</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" si="5">I3/SUM(I:I)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K7" si="6">G3*J3</f>
-        <v>27777.777777777777</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="5">
-        <f t="shared" ref="S3:S4" si="7">SUMIF(F:F,R3,K:K)*INT(SUBSTITUTE(S$1,"평균",""))</f>
-        <v>972222.22222222225</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" ref="T3:T4" si="8">_xlfn.MAXIFS(G:G,F:F,R3)*INT(SUBSTITUTE(T$1,"최대값",""))</f>
-        <v>3750000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>EN</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4">
-        <v>120</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="4"/>
-        <v>에너지너무많음</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="6"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="R4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>EN</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5">
-        <v>90</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="4"/>
-        <v>에너지너무많음</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>GO</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="2"/>
-        <v>250000</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6">
-        <v>250000</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="6"/>
-        <v>27777.777777777777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>GO</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="2"/>
-        <v>375000</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7">
-        <v>375000</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="6"/>
-        <v>41666.666666666664</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{F9622349-D7CD-4FC8-A444-4EE7E70F0164}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{1D6DCD2A-DAB3-42A4-8D58-B655A47537C5}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(E2="재화","서버재화",IF(E2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(E2="재화","서버재화",IF(E2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Excel/작업Attendance.xlsx
+++ b/Excel/작업Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0AC353-B204-4CE0-ADA6-68E704664A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C1DA3-9B63-43A7-A49A-2454998EC86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{CAFD6D8A-5761-4B20-B7C4-D765230D70BF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="98">
   <si>
     <t>fr</t>
   </si>
@@ -393,6 +393,13 @@
   </si>
   <si>
     <t>attdRw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>DI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2036,7 +2043,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(X1,COUNTA(X:X)-1,0),1)=",",SUBSTITUTE(OFFSET(X1,COUNTA(X:X)-1,0),",","",1),OFFSET(X1,COUNTA(X:X)-1,0))
 &amp;"]"</f>
-        <v>[{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401},{"attd":"nw4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":277},{"attd":"nw4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":322},{"attd":"nw4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":221},{"attd":"nw4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":815},{"attd":"nw4","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":950},{"attd":"nw4","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":853},{"attd":"nw4","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":716},{"attd":"nw4","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":761},{"attd":"nw4","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":631},{"attd":"nw4","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":328},{"attd":"nw4","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":876},{"attd":"nw4","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":378},{"attd":"nw4","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":250},{"attd":"nw4","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":303},{"attd":"nw4","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":541},{"attd":"nw4","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":875},{"attd":"nw4","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":165},{"attd":"nw4","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":705},{"attd":"nw4","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":580},{"attd":"nw4","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":156},{"attd":"nw4","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"key":659},{"attd":"nw4","num":26,"tp1":"cu","vl1":"GO","cn1":50000,"key":147},{"attd":"nw4","num":27,"tp1":"cu","vl1":"GO","cn1":10000,"key":194},{"attd":"nw4","num":28,"tp1":"cu","vl1":"GO","cn1":10000,"key":102},{"attd":"nw4","num":29,"tp1":"cu","vl1":"EN","cn1":3000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":265}]</v>
+        <v>[{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401},{"attd":"nw4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":277},{"attd":"nw4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":322},{"attd":"nw4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":221},{"attd":"nw4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":815},{"attd":"nw4","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":950},{"attd":"nw4","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":853},{"attd":"nw4","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":716},{"attd":"nw4","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":761},{"attd":"nw4","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":631},{"attd":"nw4","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":328},{"attd":"nw4","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":876},{"attd":"nw4","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":378},{"attd":"nw4","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":250},{"attd":"nw4","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":303},{"attd":"nw4","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":541},{"attd":"nw4","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":875},{"attd":"nw4","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":165},{"attd":"nw4","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":705},{"attd":"nw4","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":580},{"attd":"nw4","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":156},{"attd":"nw4","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"key":659},{"attd":"nw4","num":26,"tp1":"cu","vl1":"GO","cn1":50000,"key":147},{"attd":"nw4","num":27,"tp1":"cu","vl1":"GO","cn1":10000,"key":194},{"attd":"nw4","num":28,"tp1":"cu","vl1":"GO","cn1":10000,"key":102},{"attd":"nw4","num":29,"tp1":"cu","vl1":"EN","cn1":3000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":265}]</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2076,7 +2083,7 @@
         <v>69</v>
       </c>
       <c r="J3">
-        <v>1250</v>
+        <v>12500</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="2"/>
@@ -2103,7 +2110,7 @@
       </c>
       <c r="T3">
         <f t="shared" si="6"/>
-        <v>1250</v>
+        <v>12500</v>
       </c>
       <c r="U3" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2119,7 +2126,7 @@
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3:X66" ca="1" si="14">IF(ROW()=2,Y3,OFFSET(X3,-1,0)&amp;IF(LEN(Y3)=0,"",","&amp;Y3))</f>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829}</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" ref="Y3:Y66" ca="1" si="15">"{"""&amp;D$1&amp;""":"""&amp;D3&amp;""""
@@ -2131,7 +2138,7 @@
 &amp;IF(LEN(N3)=0,"",","""&amp;N$1&amp;""":"""&amp;N3&amp;"""")
 &amp;IF(LEN(O3)=0,"",","""&amp;O$1&amp;""":"&amp;O3)
 &amp;","""&amp;P$1&amp;""":"&amp;P3&amp;"}"</f>
-        <v>{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829}</v>
+        <v>{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829}</v>
       </c>
       <c r="AA3" t="s">
         <v>70</v>
@@ -2178,10 +2185,10 @@
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="2"/>
@@ -2204,11 +2211,11 @@
       </c>
       <c r="S4" t="str">
         <f t="shared" si="5"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2224,11 +2231,14 @@
       </c>
       <c r="X4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728}</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728}</v>
+        <v>{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728}</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2309,7 +2319,7 @@
       </c>
       <c r="X5" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112}</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -2351,7 +2361,7 @@
         <v>69</v>
       </c>
       <c r="J6">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
@@ -2378,7 +2388,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="6"/>
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2394,11 +2404,11 @@
       </c>
       <c r="X6" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798}</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798}</v>
+        <v>{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798}</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2433,10 +2443,10 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="J7">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="2"/>
@@ -2459,11 +2469,11 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" si="5"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T7">
         <f t="shared" si="6"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2479,11 +2489,11 @@
       </c>
       <c r="X7" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272}</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272}</v>
+        <v>{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272}</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2564,7 +2574,7 @@
       </c>
       <c r="X8" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335}</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -2606,7 +2616,7 @@
         <v>69</v>
       </c>
       <c r="J9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
@@ -2633,7 +2643,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2649,11 +2659,11 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758}</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758}</v>
+        <v>{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758}</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2688,10 +2698,10 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J10">
-        <v>6250</v>
+        <v>500</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
@@ -2714,11 +2724,11 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" si="5"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T10">
         <f t="shared" si="6"/>
-        <v>6250</v>
+        <v>500</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2734,11 +2744,11 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808}</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808}</v>
+        <v>{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808}</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2776,7 +2786,7 @@
         <v>69</v>
       </c>
       <c r="J11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
@@ -2803,7 +2813,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2819,11 +2829,11 @@
       </c>
       <c r="X11" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128}</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128}</v>
+        <v>{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128}</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -2904,7 +2914,7 @@
       </c>
       <c r="X12" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645}</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -2943,10 +2953,10 @@
         <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J13">
-        <v>12500</v>
+        <v>150</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
@@ -2969,11 +2979,11 @@
       </c>
       <c r="S13" t="str">
         <f t="shared" si="5"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T13">
         <f t="shared" si="6"/>
-        <v>12500</v>
+        <v>150</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2989,11 +2999,11 @@
       </c>
       <c r="X13" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342}</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342}</v>
+        <v>{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342}</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -3031,7 +3041,7 @@
         <v>69</v>
       </c>
       <c r="J14">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
@@ -3058,7 +3068,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3074,11 +3084,11 @@
       </c>
       <c r="X14" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441}</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441}</v>
+        <v>{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441}</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -3113,14 +3123,14 @@
         <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J15">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3139,11 +3149,11 @@
       </c>
       <c r="S15" t="str">
         <f t="shared" si="5"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T15">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3159,11 +3169,11 @@
       </c>
       <c r="X15" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994}</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994}</v>
+        <v>{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994}</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -3244,7 +3254,7 @@
       </c>
       <c r="X16" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967}</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3329,7 +3339,7 @@
       </c>
       <c r="X17" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577}</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3414,7 +3424,7 @@
       </c>
       <c r="X18" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669}</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3499,7 +3509,7 @@
       </c>
       <c r="X19" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306}</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3538,10 +3548,10 @@
         <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J20">
-        <v>33750</v>
+        <v>600</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
@@ -3564,11 +3574,11 @@
       </c>
       <c r="S20" t="str">
         <f t="shared" si="5"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T20">
         <f t="shared" si="6"/>
-        <v>33750</v>
+        <v>600</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3584,11 +3594,11 @@
       </c>
       <c r="X20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467}</v>
       </c>
       <c r="Y20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467}</v>
+        <v>{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467}</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3669,7 +3679,7 @@
       </c>
       <c r="X21" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600}</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3754,7 +3764,7 @@
       </c>
       <c r="X22" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582}</v>
       </c>
       <c r="Y22" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3839,7 +3849,7 @@
       </c>
       <c r="X23" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254}</v>
       </c>
       <c r="Y23" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3924,7 +3934,7 @@
       </c>
       <c r="X24" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498}</v>
       </c>
       <c r="Y24" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3963,10 +3973,10 @@
         <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J25">
-        <v>36250</v>
+        <v>1500</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="2"/>
@@ -3989,11 +3999,11 @@
       </c>
       <c r="S25" t="str">
         <f t="shared" si="5"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T25">
         <f t="shared" si="6"/>
-        <v>36250</v>
+        <v>1500</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4009,11 +4019,11 @@
       </c>
       <c r="X25" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494}</v>
       </c>
       <c r="Y25" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494}</v>
+        <v>{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494}</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -4103,7 +4113,7 @@
       </c>
       <c r="X26" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239}</v>
       </c>
       <c r="Y26" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4188,7 +4198,7 @@
       </c>
       <c r="X27" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383}</v>
       </c>
       <c r="Y27" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4273,7 +4283,7 @@
       </c>
       <c r="X28" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513}</v>
       </c>
       <c r="Y28" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4312,10 +4322,10 @@
         <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J29">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="2"/>
@@ -4338,11 +4348,11 @@
       </c>
       <c r="S29" t="str">
         <f t="shared" si="5"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T29">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4358,11 +4368,11 @@
       </c>
       <c r="X29" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446}</v>
       </c>
       <c r="Y29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446}</v>
+        <v>{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446}</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -4443,7 +4453,7 @@
       </c>
       <c r="X30" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470}</v>
       </c>
       <c r="Y30" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4528,7 +4538,7 @@
       </c>
       <c r="X31" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496}</v>
       </c>
       <c r="Y31" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4567,10 +4577,10 @@
         <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J32">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="2"/>
@@ -4593,11 +4603,11 @@
       </c>
       <c r="S32" t="str">
         <f t="shared" si="5"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T32">
         <f t="shared" si="6"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4613,11 +4623,11 @@
       </c>
       <c r="X32" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218}</v>
       </c>
       <c r="Y32" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218}</v>
+        <v>{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218}</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -4698,7 +4708,7 @@
       </c>
       <c r="X33" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434}</v>
       </c>
       <c r="Y33" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4791,7 +4801,7 @@
       </c>
       <c r="X34" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629}</v>
       </c>
       <c r="Y34" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -4830,14 +4840,14 @@
         <v>63</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J35">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="17"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4865,11 +4875,11 @@
       </c>
       <c r="S35" t="str">
         <f t="shared" si="19"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T35">
         <f t="shared" si="20"/>
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -4885,11 +4895,11 @@
       </c>
       <c r="X35" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733}</v>
       </c>
       <c r="Y35" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733}</v>
+        <v>{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733}</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -4972,7 +4982,7 @@
       </c>
       <c r="X36" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228}</v>
       </c>
       <c r="Y36" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5057,7 +5067,7 @@
       </c>
       <c r="X37" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373}</v>
       </c>
       <c r="Y37" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5096,10 +5106,10 @@
         <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J38">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="17"/>
@@ -5122,11 +5132,11 @@
       </c>
       <c r="S38" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T38">
         <f t="shared" si="20"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5142,11 +5152,11 @@
       </c>
       <c r="X38" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447}</v>
       </c>
       <c r="Y38" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447}</v>
+        <v>{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447}</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -5227,7 +5237,7 @@
       </c>
       <c r="X39" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732}</v>
       </c>
       <c r="Y39" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5312,7 +5322,7 @@
       </c>
       <c r="X40" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194}</v>
       </c>
       <c r="Y40" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5351,10 +5361,10 @@
         <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J41">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="17"/>
@@ -5377,11 +5387,11 @@
       </c>
       <c r="S41" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T41">
         <f t="shared" si="20"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5397,11 +5407,11 @@
       </c>
       <c r="X41" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652}</v>
       </c>
       <c r="Y41" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652}</v>
+        <v>{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652}</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -5482,7 +5492,7 @@
       </c>
       <c r="X42" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821}</v>
       </c>
       <c r="Y42" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5567,7 +5577,7 @@
       </c>
       <c r="X43" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922}</v>
       </c>
       <c r="Y43" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5606,14 +5616,14 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J44">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="17"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -5641,11 +5651,11 @@
       </c>
       <c r="S44" t="str">
         <f t="shared" si="19"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T44">
         <f t="shared" si="20"/>
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5661,11 +5671,11 @@
       </c>
       <c r="X44" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844}</v>
       </c>
       <c r="Y44" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844}</v>
+        <v>{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844}</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -5746,7 +5756,7 @@
       </c>
       <c r="X45" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636}</v>
       </c>
       <c r="Y45" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5831,7 +5841,7 @@
       </c>
       <c r="X46" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334}</v>
       </c>
       <c r="Y46" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5870,10 +5880,10 @@
         <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J47">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="17"/>
@@ -5896,11 +5906,11 @@
       </c>
       <c r="S47" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T47">
         <f t="shared" si="20"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -5916,11 +5926,11 @@
       </c>
       <c r="X47" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858}</v>
       </c>
       <c r="Y47" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858}</v>
+        <v>{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858}</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -6001,7 +6011,7 @@
       </c>
       <c r="X48" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965}</v>
       </c>
       <c r="Y48" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6086,7 +6096,7 @@
       </c>
       <c r="X49" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657}</v>
       </c>
       <c r="Y49" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6125,10 +6135,10 @@
         <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J50">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="17"/>
@@ -6151,11 +6161,11 @@
       </c>
       <c r="S50" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T50">
         <f t="shared" si="20"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6171,11 +6181,11 @@
       </c>
       <c r="X50" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160}</v>
       </c>
       <c r="Y50" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160}</v>
+        <v>{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160}</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -6256,7 +6266,7 @@
       </c>
       <c r="X51" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798}</v>
       </c>
       <c r="Y51" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6341,7 +6351,7 @@
       </c>
       <c r="X52" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803}</v>
       </c>
       <c r="Y52" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6380,14 +6390,14 @@
         <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J53">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="17"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L53" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -6415,11 +6425,11 @@
       </c>
       <c r="S53" t="str">
         <f t="shared" si="19"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T53">
         <f t="shared" si="20"/>
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6435,11 +6445,11 @@
       </c>
       <c r="X53" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512}</v>
       </c>
       <c r="Y53" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512}</v>
+        <v>{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512}</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -6522,7 +6532,7 @@
       </c>
       <c r="X54" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450}</v>
       </c>
       <c r="Y54" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6607,7 +6617,7 @@
       </c>
       <c r="X55" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645}</v>
       </c>
       <c r="Y55" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6646,10 +6656,10 @@
         <v>63</v>
       </c>
       <c r="I56" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J56">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="17"/>
@@ -6672,11 +6682,11 @@
       </c>
       <c r="S56" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T56">
         <f t="shared" si="20"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="U56" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6692,11 +6702,11 @@
       </c>
       <c r="X56" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921}</v>
       </c>
       <c r="Y56" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921}</v>
+        <v>{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921}</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -6777,7 +6787,7 @@
       </c>
       <c r="X57" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586}</v>
       </c>
       <c r="Y57" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6862,7 +6872,7 @@
       </c>
       <c r="X58" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864}</v>
       </c>
       <c r="Y58" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6901,10 +6911,10 @@
         <v>63</v>
       </c>
       <c r="I59" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J59">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="17"/>
@@ -6927,11 +6937,11 @@
       </c>
       <c r="S59" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T59">
         <f t="shared" si="20"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6947,11 +6957,11 @@
       </c>
       <c r="X59" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374}</v>
       </c>
       <c r="Y59" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374}</v>
+        <v>{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374}</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -7032,7 +7042,7 @@
       </c>
       <c r="X60" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980}</v>
       </c>
       <c r="Y60" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7117,7 +7127,7 @@
       </c>
       <c r="X61" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666}</v>
       </c>
       <c r="Y61" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7156,14 +7166,14 @@
         <v>63</v>
       </c>
       <c r="I62" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J62">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="17"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L62" t="str">
         <f t="shared" ca="1" si="26"/>
@@ -7191,11 +7201,11 @@
       </c>
       <c r="S62" t="str">
         <f t="shared" si="19"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T62">
         <f t="shared" si="20"/>
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="U62" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -7211,11 +7221,11 @@
       </c>
       <c r="X62" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863}</v>
       </c>
       <c r="Y62" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863}</v>
+        <v>{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863}</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -7298,7 +7308,7 @@
       </c>
       <c r="X63" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760}</v>
       </c>
       <c r="Y63" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7383,7 +7393,7 @@
       </c>
       <c r="X64" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805}</v>
       </c>
       <c r="Y64" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7422,10 +7432,10 @@
         <v>63</v>
       </c>
       <c r="I65" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J65">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="17"/>
@@ -7448,11 +7458,11 @@
       </c>
       <c r="S65" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T65">
         <f t="shared" si="20"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -7468,11 +7478,11 @@
       </c>
       <c r="X65" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537}</v>
       </c>
       <c r="Y65" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537}</v>
+        <v>{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537}</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -7561,7 +7571,7 @@
       </c>
       <c r="X66" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969}</v>
       </c>
       <c r="Y66" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7648,7 +7658,7 @@
       </c>
       <c r="X67" t="str">
         <f t="shared" ref="X67:X130" ca="1" si="41">IF(ROW()=2,Y67,OFFSET(X67,-1,0)&amp;IF(LEN(Y67)=0,"",","&amp;Y67))</f>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620}</v>
       </c>
       <c r="Y67" t="str">
         <f t="shared" ref="Y67:Y130" ca="1" si="42">"{"""&amp;D$1&amp;""":"""&amp;D67&amp;""""
@@ -7695,10 +7705,10 @@
         <v>63</v>
       </c>
       <c r="I68" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J68">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="32"/>
@@ -7721,11 +7731,11 @@
       </c>
       <c r="S68" t="str">
         <f t="shared" si="34"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T68">
         <f t="shared" si="35"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U68" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -7741,11 +7751,11 @@
       </c>
       <c r="X68" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714}</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714}</v>
+        <v>{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714}</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -7826,7 +7836,7 @@
       </c>
       <c r="X69" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478}</v>
       </c>
       <c r="Y69" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -7911,7 +7921,7 @@
       </c>
       <c r="X70" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390}</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -7950,14 +7960,14 @@
         <v>63</v>
       </c>
       <c r="I71" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J71">
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="32"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L71" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -7985,11 +7995,11 @@
       </c>
       <c r="S71" t="str">
         <f t="shared" si="34"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T71">
         <f t="shared" si="35"/>
-        <v>999</v>
+        <v>500</v>
       </c>
       <c r="U71" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -8005,11 +8015,11 @@
       </c>
       <c r="X71" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110}</v>
       </c>
       <c r="Y71" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110}</v>
+        <v>{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110}</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -8090,7 +8100,7 @@
       </c>
       <c r="X72" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668}</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8175,7 +8185,7 @@
       </c>
       <c r="X73" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624}</v>
       </c>
       <c r="Y73" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8260,7 +8270,7 @@
       </c>
       <c r="X74" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426}</v>
       </c>
       <c r="Y74" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8345,7 +8355,7 @@
       </c>
       <c r="X75" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143}</v>
       </c>
       <c r="Y75" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8432,7 +8442,7 @@
       </c>
       <c r="X76" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221}</v>
       </c>
       <c r="Y76" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8517,7 +8527,7 @@
       </c>
       <c r="X77" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504}</v>
       </c>
       <c r="Y77" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8602,7 +8612,7 @@
       </c>
       <c r="X78" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139}</v>
       </c>
       <c r="Y78" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8687,7 +8697,7 @@
       </c>
       <c r="X79" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290}</v>
       </c>
       <c r="Y79" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8781,7 +8791,7 @@
       </c>
       <c r="X80" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113}</v>
       </c>
       <c r="Y80" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8866,7 +8876,7 @@
       </c>
       <c r="X81" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455}</v>
       </c>
       <c r="Y81" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8951,7 +8961,7 @@
       </c>
       <c r="X82" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188}</v>
       </c>
       <c r="Y82" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -8990,10 +9000,10 @@
         <v>63</v>
       </c>
       <c r="I83" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J83">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="32"/>
@@ -9016,11 +9026,11 @@
       </c>
       <c r="S83" t="str">
         <f t="shared" si="34"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T83">
         <f t="shared" si="35"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="U83" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -9036,11 +9046,11 @@
       </c>
       <c r="X83" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700}</v>
       </c>
       <c r="Y83" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700}</v>
+        <v>{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700}</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -9121,7 +9131,7 @@
       </c>
       <c r="X84" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534}</v>
       </c>
       <c r="Y84" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -9206,7 +9216,7 @@
       </c>
       <c r="X85" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952}</v>
       </c>
       <c r="Y85" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -9245,10 +9255,10 @@
         <v>63</v>
       </c>
       <c r="I86" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J86">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="32"/>
@@ -9271,11 +9281,11 @@
       </c>
       <c r="S86" t="str">
         <f t="shared" si="34"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T86">
         <f t="shared" si="35"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U86" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -9291,11 +9301,11 @@
       </c>
       <c r="X86" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444}</v>
       </c>
       <c r="Y86" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444}</v>
+        <v>{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444}</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -9376,7 +9386,7 @@
       </c>
       <c r="X87" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111}</v>
       </c>
       <c r="Y87" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -9461,7 +9471,7 @@
       </c>
       <c r="X88" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256}</v>
       </c>
       <c r="Y88" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -9500,14 +9510,14 @@
         <v>63</v>
       </c>
       <c r="I89" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J89">
         <v>500</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="32"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L89" t="str">
         <f t="shared" ca="1" si="45"/>
@@ -9535,7 +9545,7 @@
       </c>
       <c r="S89" t="str">
         <f t="shared" si="34"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T89">
         <f t="shared" si="35"/>
@@ -9555,11 +9565,11 @@
       </c>
       <c r="X89" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755}</v>
       </c>
       <c r="Y89" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755}</v>
+        <v>{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755}</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -9642,7 +9652,7 @@
       </c>
       <c r="X90" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752}</v>
       </c>
       <c r="Y90" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -9727,7 +9737,7 @@
       </c>
       <c r="X91" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378}</v>
       </c>
       <c r="Y91" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -9766,10 +9776,10 @@
         <v>63</v>
       </c>
       <c r="I92" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J92">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="32"/>
@@ -9792,11 +9802,11 @@
       </c>
       <c r="S92" t="str">
         <f t="shared" si="34"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T92">
         <f t="shared" si="35"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="U92" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -9812,11 +9822,11 @@
       </c>
       <c r="X92" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750}</v>
       </c>
       <c r="Y92" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750}</v>
+        <v>{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750}</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -9897,7 +9907,7 @@
       </c>
       <c r="X93" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773}</v>
       </c>
       <c r="Y93" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -9982,7 +9992,7 @@
       </c>
       <c r="X94" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760}</v>
       </c>
       <c r="Y94" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -10021,10 +10031,10 @@
         <v>63</v>
       </c>
       <c r="I95" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J95">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="32"/>
@@ -10047,11 +10057,11 @@
       </c>
       <c r="S95" t="str">
         <f t="shared" si="34"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T95">
         <f t="shared" si="35"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U95" t="str">
         <f t="shared" ca="1" si="36"/>
@@ -10067,11 +10077,11 @@
       </c>
       <c r="X95" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529}</v>
       </c>
       <c r="Y95" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529}</v>
+        <v>{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529}</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -10152,7 +10162,7 @@
       </c>
       <c r="X96" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816}</v>
       </c>
       <c r="Y96" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -10237,7 +10247,7 @@
       </c>
       <c r="X97" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625}</v>
       </c>
       <c r="Y97" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -10278,7 +10288,7 @@
         <v>63</v>
       </c>
       <c r="I98" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J98">
         <v>500</v>
@@ -10291,7 +10301,7 @@
 IF(I98="EN",
   IF(J98&gt;29,"에너지너무많음",
   IF(J98&gt;9,"에너지다소많음","")),"")))</f>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L98" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -10319,7 +10329,7 @@
       </c>
       <c r="S98" t="str">
         <f t="shared" ref="S98:S129" si="52">IF(LEN(I98)=0,"",I98)</f>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T98">
         <f t="shared" ref="T98:T129" si="53">IF(LEN(J98)=0,"",J98)</f>
@@ -10339,11 +10349,11 @@
       </c>
       <c r="X98" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923}</v>
       </c>
       <c r="Y98" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923}</v>
+        <v>{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923}</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -10424,7 +10434,7 @@
       </c>
       <c r="X99" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672}</v>
       </c>
       <c r="Y99" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -10509,7 +10519,7 @@
       </c>
       <c r="X100" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878}</v>
       </c>
       <c r="Y100" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -10548,10 +10558,10 @@
         <v>63</v>
       </c>
       <c r="I101" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J101">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="50"/>
@@ -10574,11 +10584,11 @@
       </c>
       <c r="S101" t="str">
         <f t="shared" si="52"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T101">
         <f t="shared" si="53"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="U101" t="str">
         <f t="shared" ca="1" si="54"/>
@@ -10594,11 +10604,11 @@
       </c>
       <c r="X101" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672}</v>
       </c>
       <c r="Y101" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672}</v>
+        <v>{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672}</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -10679,7 +10689,7 @@
       </c>
       <c r="X102" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113}</v>
       </c>
       <c r="Y102" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -10764,7 +10774,7 @@
       </c>
       <c r="X103" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823}</v>
       </c>
       <c r="Y103" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -10803,10 +10813,10 @@
         <v>63</v>
       </c>
       <c r="I104" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="J104">
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" si="50"/>
@@ -10829,11 +10839,11 @@
       </c>
       <c r="S104" t="str">
         <f t="shared" si="52"/>
-        <v>GO</v>
+        <v>DI</v>
       </c>
       <c r="T104">
         <f t="shared" si="53"/>
-        <v>3750</v>
+        <v>200</v>
       </c>
       <c r="U104" t="str">
         <f t="shared" ca="1" si="54"/>
@@ -10849,11 +10859,11 @@
       </c>
       <c r="X104" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597}</v>
       </c>
       <c r="Y104" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597}</v>
+        <v>{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597}</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -10934,7 +10944,7 @@
       </c>
       <c r="X105" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979}</v>
       </c>
       <c r="Y105" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11019,7 +11029,7 @@
       </c>
       <c r="X106" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559}</v>
       </c>
       <c r="Y106" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11058,14 +11068,14 @@
         <v>63</v>
       </c>
       <c r="I107" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J107">
         <v>500</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="50"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="L107" t="str">
         <f t="shared" ca="1" si="47"/>
@@ -11093,7 +11103,7 @@
       </c>
       <c r="S107" t="str">
         <f t="shared" si="52"/>
-        <v>EN</v>
+        <v>DI</v>
       </c>
       <c r="T107">
         <f t="shared" si="53"/>
@@ -11113,11 +11123,11 @@
       </c>
       <c r="X107" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895}</v>
       </c>
       <c r="Y107" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895}</v>
+        <v>{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895}</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -11200,7 +11210,7 @@
       </c>
       <c r="X108" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271}</v>
       </c>
       <c r="Y108" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11285,7 +11295,7 @@
       </c>
       <c r="X109" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293}</v>
       </c>
       <c r="Y109" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11370,7 +11380,7 @@
       </c>
       <c r="X110" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970}</v>
       </c>
       <c r="Y110" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11455,7 +11465,7 @@
       </c>
       <c r="X111" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995}</v>
       </c>
       <c r="Y111" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11540,7 +11550,7 @@
       </c>
       <c r="X112" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788}</v>
       </c>
       <c r="Y112" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11625,7 +11635,7 @@
       </c>
       <c r="X113" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297}</v>
       </c>
       <c r="Y113" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11710,7 +11720,7 @@
       </c>
       <c r="X114" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614}</v>
       </c>
       <c r="Y114" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11795,7 +11805,7 @@
       </c>
       <c r="X115" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882}</v>
       </c>
       <c r="Y115" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11889,7 +11899,7 @@
       </c>
       <c r="X116" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839}</v>
       </c>
       <c r="Y116" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -11976,7 +11986,7 @@
       </c>
       <c r="X117" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501}</v>
       </c>
       <c r="Y117" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12061,7 +12071,7 @@
       </c>
       <c r="X118" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300}</v>
       </c>
       <c r="Y118" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12146,7 +12156,7 @@
       </c>
       <c r="X119" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229}</v>
       </c>
       <c r="Y119" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12231,7 +12241,7 @@
       </c>
       <c r="X120" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186}</v>
       </c>
       <c r="Y120" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12325,7 +12335,7 @@
       </c>
       <c r="X121" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355}</v>
       </c>
       <c r="Y121" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12410,7 +12420,7 @@
       </c>
       <c r="X122" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698}</v>
       </c>
       <c r="Y122" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12495,7 +12505,7 @@
       </c>
       <c r="X123" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759}</v>
       </c>
       <c r="Y123" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12580,7 +12590,7 @@
       </c>
       <c r="X124" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884}</v>
       </c>
       <c r="Y124" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12665,7 +12675,7 @@
       </c>
       <c r="X125" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193}</v>
       </c>
       <c r="Y125" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12750,7 +12760,7 @@
       </c>
       <c r="X126" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526}</v>
       </c>
       <c r="Y126" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12835,7 +12845,7 @@
       </c>
       <c r="X127" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458}</v>
       </c>
       <c r="Y127" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -12920,7 +12930,7 @@
       </c>
       <c r="X128" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819}</v>
       </c>
       <c r="Y128" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -13005,7 +13015,7 @@
       </c>
       <c r="X129" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131}</v>
       </c>
       <c r="Y129" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -13098,7 +13108,7 @@
       </c>
       <c r="X130" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197}</v>
       </c>
       <c r="Y130" t="str">
         <f t="shared" ca="1" si="42"/>
@@ -13185,7 +13195,7 @@
       </c>
       <c r="X131" t="str">
         <f t="shared" ref="X131:X188" ca="1" si="72">IF(ROW()=2,Y131,OFFSET(X131,-1,0)&amp;IF(LEN(Y131)=0,"",","&amp;Y131))</f>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617}</v>
       </c>
       <c r="Y131" t="str">
         <f t="shared" ref="Y131:Y188" ca="1" si="73">"{"""&amp;D$1&amp;""":"""&amp;D131&amp;""""
@@ -13278,7 +13288,7 @@
       </c>
       <c r="X132" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670}</v>
       </c>
       <c r="Y132" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -13363,7 +13373,7 @@
       </c>
       <c r="X133" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697}</v>
       </c>
       <c r="Y133" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -13448,7 +13458,7 @@
       </c>
       <c r="X134" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413}</v>
       </c>
       <c r="Y134" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -13533,7 +13543,7 @@
       </c>
       <c r="X135" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180}</v>
       </c>
       <c r="Y135" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -13618,7 +13628,7 @@
       </c>
       <c r="X136" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987}</v>
       </c>
       <c r="Y136" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -13703,7 +13713,7 @@
       </c>
       <c r="X137" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759}</v>
       </c>
       <c r="Y137" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -13797,7 +13807,7 @@
       </c>
       <c r="X138" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813}</v>
       </c>
       <c r="Y138" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -13884,7 +13894,7 @@
       </c>
       <c r="X139" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571}</v>
       </c>
       <c r="Y139" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -13969,7 +13979,7 @@
       </c>
       <c r="X140" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304}</v>
       </c>
       <c r="Y140" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14054,7 +14064,7 @@
       </c>
       <c r="X141" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836}</v>
       </c>
       <c r="Y141" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14139,7 +14149,7 @@
       </c>
       <c r="X142" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393}</v>
       </c>
       <c r="Y142" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14224,7 +14234,7 @@
       </c>
       <c r="X143" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213}</v>
       </c>
       <c r="Y143" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14309,7 +14319,7 @@
       </c>
       <c r="X144" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192}</v>
       </c>
       <c r="Y144" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14394,7 +14404,7 @@
       </c>
       <c r="X145" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233}</v>
       </c>
       <c r="Y145" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14479,7 +14489,7 @@
       </c>
       <c r="X146" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902}</v>
       </c>
       <c r="Y146" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14564,7 +14574,7 @@
       </c>
       <c r="X147" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503}</v>
       </c>
       <c r="Y147" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14649,7 +14659,7 @@
       </c>
       <c r="X148" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549}</v>
       </c>
       <c r="Y148" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14734,7 +14744,7 @@
       </c>
       <c r="X149" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604}</v>
       </c>
       <c r="Y149" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14819,7 +14829,7 @@
       </c>
       <c r="X150" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424}</v>
       </c>
       <c r="Y150" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14904,7 +14914,7 @@
       </c>
       <c r="X151" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317}</v>
       </c>
       <c r="Y151" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -14989,7 +14999,7 @@
       </c>
       <c r="X152" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638}</v>
       </c>
       <c r="Y152" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15074,7 +15084,7 @@
       </c>
       <c r="X153" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689}</v>
       </c>
       <c r="Y153" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15159,7 +15169,7 @@
       </c>
       <c r="X154" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391}</v>
       </c>
       <c r="Y154" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15244,7 +15254,7 @@
       </c>
       <c r="X155" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493}</v>
       </c>
       <c r="Y155" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15329,7 +15339,7 @@
       </c>
       <c r="X156" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849}</v>
       </c>
       <c r="Y156" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15414,7 +15424,7 @@
       </c>
       <c r="X157" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270}</v>
       </c>
       <c r="Y157" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15499,7 +15509,7 @@
       </c>
       <c r="X158" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149}</v>
       </c>
       <c r="Y158" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15593,7 +15603,7 @@
       </c>
       <c r="X159" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918}</v>
       </c>
       <c r="Y159" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15678,7 +15688,7 @@
       </c>
       <c r="X160" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970}</v>
       </c>
       <c r="Y160" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15763,7 +15773,7 @@
       </c>
       <c r="X161" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315}</v>
       </c>
       <c r="Y161" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15856,7 +15866,7 @@
       </c>
       <c r="X162" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328}</v>
       </c>
       <c r="Y162" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -15941,7 +15951,7 @@
       </c>
       <c r="X163" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401}</v>
       </c>
       <c r="Y163" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -16028,7 +16038,7 @@
       </c>
       <c r="X164" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401},{"attd":"nw4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":277}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401},{"attd":"nw4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":277}</v>
       </c>
       <c r="Y164" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -16113,7 +16123,7 @@
       </c>
       <c r="X165" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401},{"attd":"nw4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":277},{"attd":"nw4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":322}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401},{"attd":"nw4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":277},{"attd":"nw4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":322}</v>
       </c>
       <c r="Y165" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -16198,7 +16208,7 @@
       </c>
       <c r="X166" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"GO","cn1":36250,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"EN","cn1":999,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401},{"attd":"nw4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":277},{"attd":"nw4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":322},{"attd":"nw4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":221}</v>
+        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":12500,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":728},{"attd":"fr","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":112},{"attd":"fr","num":5,"tp1":"cu","vl1":"GO","cn1":25000,"key":798},{"attd":"fr","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":272},{"attd":"fr","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":335},{"attd":"fr","num":8,"tp1":"cu","vl1":"GO","cn1":100000,"key":758},{"attd":"fr","num":9,"tp1":"cu","vl1":"DI","cn1":500,"key":808},{"attd":"fr","num":10,"tp1":"cu","vl1":"GO","cn1":100000,"key":128},{"attd":"fr","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":645},{"attd":"fr","num":12,"tp1":"cu","vl1":"DI","cn1":150,"key":342},{"attd":"fr","num":13,"tp1":"cu","vl1":"GO","cn1":100000,"key":441},{"attd":"fr","num":14,"tp1":"cu","vl1":"DI","cn1":300,"key":994},{"attd":"fr","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":967},{"attd":"fr","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":577},{"attd":"fr","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":669},{"attd":"fr","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":306},{"attd":"fr","num":19,"tp1":"cu","vl1":"DI","cn1":600,"key":467},{"attd":"fr","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":600},{"attd":"fr","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"key":582},{"attd":"fr","num":22,"tp1":"cu","vl1":"GO","cn1":27500,"key":254},{"attd":"fr","num":23,"tp1":"cu","vl1":"GO","cn1":10000,"key":498},{"attd":"fr","num":24,"tp1":"cu","vl1":"DI","cn1":1500,"key":494},{"attd":"fr","num":25,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":10000000,"key":239},{"attd":"rt1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":383},{"attd":"rt1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":513},{"attd":"rt1","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":446},{"attd":"rt1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":470},{"attd":"rt1","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":496},{"attd":"rt1","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":218},{"attd":"rt1","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":434},{"attd":"rt1","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":629},{"attd":"rt1","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":733},{"attd":"rt2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":228},{"attd":"rt2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":373},{"attd":"rt2","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":447},{"attd":"rt2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":732},{"attd":"rt2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":194},{"attd":"rt2","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":652},{"attd":"rt2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":821},{"attd":"rt2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":922},{"attd":"rt2","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":844},{"attd":"rt3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":636},{"attd":"rt3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":334},{"attd":"rt3","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":858},{"attd":"rt3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":965},{"attd":"rt3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":657},{"attd":"rt3","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":160},{"attd":"rt3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":798},{"attd":"rt3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":803},{"attd":"rt3","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":512},{"attd":"rt4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":450},{"attd":"rt4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":645},{"attd":"rt4","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":921},{"attd":"rt4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":586},{"attd":"rt4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":864},{"attd":"rt4","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":374},{"attd":"rt4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":980},{"attd":"rt4","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":666},{"attd":"rt4","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":863},{"attd":"rt5","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":760},{"attd":"rt5","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":805},{"attd":"rt5","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":537},{"attd":"rt5","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":969},{"attd":"rt5","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":620},{"attd":"rt5","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":714},{"attd":"rt5","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":478},{"attd":"rt5","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":390},{"attd":"rt5","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":110},{"attd":"rt6","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":668},{"attd":"rt6","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":624},{"attd":"rt6","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":426},{"attd":"rt6","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":143},{"attd":"rt6","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":221},{"attd":"rt6","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":504},{"attd":"rt6","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":139},{"attd":"rt6","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":290},{"attd":"rt6","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":113},{"attd":"rt7","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":455},{"attd":"rt7","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":188},{"attd":"rt7","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":700},{"attd":"rt7","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":534},{"attd":"rt7","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":952},{"attd":"rt7","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":444},{"attd":"rt7","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":111},{"attd":"rt7","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":256},{"attd":"rt7","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":755},{"attd":"rt8","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":752},{"attd":"rt8","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":378},{"attd":"rt8","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":750},{"attd":"rt8","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":773},{"attd":"rt8","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":760},{"attd":"rt8","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":529},{"attd":"rt8","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":816},{"attd":"rt8","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":625},{"attd":"rt8","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":923},{"attd":"rt9","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":672},{"attd":"rt9","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":878},{"attd":"rt9","num":3,"tp1":"cu","vl1":"DI","cn1":100,"key":672},{"attd":"rt9","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":113},{"attd":"rt9","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":823},{"attd":"rt9","num":6,"tp1":"cu","vl1":"DI","cn1":200,"key":597},{"attd":"rt9","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":979},{"attd":"rt9","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":559},{"attd":"rt9","num":9,"tp1":"cu","vl1":"DI","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":895},{"attd":"rt10","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":271},{"attd":"rt10","num":2,"tp1":"cu","vl1":"EN","cn1":150,"key":293},{"attd":"rt10","num":3,"tp1":"cu","vl1":"EN","cn1":180,"key":970},{"attd":"rt10","num":4,"tp1":"cu","vl1":"EN","cn1":250,"key":995},{"attd":"rt10","num":5,"tp1":"cu","vl1":"EN","cn1":160,"key":788},{"attd":"rt10","num":6,"tp1":"cu","vl1":"EN","cn1":200,"key":297},{"attd":"rt10","num":7,"tp1":"cu","vl1":"EN","cn1":250,"key":614},{"attd":"rt10","num":8,"tp1":"cu","vl1":"EN","cn1":300,"key":882},{"attd":"rt10","num":9,"tp1":"cu","vl1":"EN","cn1":500,"tp2":"cu","vl2":"GO","cn2":5000000,"key":839},{"attd":"nw1","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":501},{"attd":"nw1","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":300},{"attd":"nw1","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":229},{"attd":"nw1","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":186},{"attd":"nw1","num":5,"tp1":"cu","vl1":"EN","cn1":2000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":355},{"attd":"nw2","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"nw2","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":759},{"attd":"nw2","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":884},{"attd":"nw2","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":193},{"attd":"nw2","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":526},{"attd":"nw2","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":458},{"attd":"nw2","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":819},{"attd":"nw2","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":131},{"attd":"nw2","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":197},{"attd":"nw2","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":617},{"attd":"nw2","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":670},{"attd":"nw2","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":697},{"attd":"nw2","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":413},{"attd":"nw2","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":180},{"attd":"nw2","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":987},{"attd":"nw2","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":759},{"attd":"nw2","num":17,"tp1":"cu","vl1":"EN","cn1":1000,"tp2":"cu","vl2":"GO","cn2":7500000,"key":813},{"attd":"nw3","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":571},{"attd":"nw3","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":304},{"attd":"nw3","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":836},{"attd":"nw3","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":393},{"attd":"nw3","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":213},{"attd":"nw3","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":192},{"attd":"nw3","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":233},{"attd":"nw3","num":8,"tp1":"cu","vl1":"GO","cn1":10000,"key":902},{"attd":"nw3","num":9,"tp1":"cu","vl1":"GO","cn1":6250,"key":503},{"attd":"nw3","num":10,"tp1":"cu","vl1":"GO","cn1":10000,"key":549},{"attd":"nw3","num":11,"tp1":"cu","vl1":"EN","cn1":300,"key":604},{"attd":"nw3","num":12,"tp1":"cu","vl1":"GO","cn1":12500,"key":424},{"attd":"nw3","num":13,"tp1":"cu","vl1":"GO","cn1":10000,"key":317},{"attd":"nw3","num":14,"tp1":"cu","vl1":"EN","cn1":500,"key":638},{"attd":"nw3","num":15,"tp1":"cu","vl1":"GO","cn1":25000,"key":689},{"attd":"nw3","num":16,"tp1":"cu","vl1":"GO","cn1":10000,"key":391},{"attd":"nw3","num":17,"tp1":"cu","vl1":"GO","cn1":10000,"key":493},{"attd":"nw3","num":18,"tp1":"cu","vl1":"EN","cn1":1000,"key":849},{"attd":"nw3","num":19,"tp1":"cu","vl1":"GO","cn1":33750,"key":270},{"attd":"nw3","num":20,"tp1":"cu","vl1":"GO","cn1":10000,"key":149},{"attd":"nw3","num":21,"tp1":"cu","vl1":"EN","cn1":1500,"tp2":"cu","vl2":"GO","cn2":7500000,"key":918},{"attd":"nw4","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":970},{"attd":"nw4","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":315},{"attd":"nw4","num":3,"tp1":"cu","vl1":"GO","cn1":10000,"key":328},{"attd":"nw4","num":4,"tp1":"cu","vl1":"EN","cn1":150,"key":401},{"attd":"nw4","num":5,"tp1":"cu","vl1":"GO","cn1":2500,"key":277},{"attd":"nw4","num":6,"tp1":"cu","vl1":"GO","cn1":3750,"key":322},{"attd":"nw4","num":7,"tp1":"cu","vl1":"EN","cn1":220,"key":221}</v>
       </c>
       <c r="Y166" t="str">
         <f t="shared" ca="1" si="73"/>
@@ -16283,7 +16293,7 @@
       </c>
       <c r="X167" t="str">
         <f t="shared" ca="1" si="72"/>
-        <v>{"attd":"fr","num":1,"tp1":"cu","vl1":"EN","cn1":120,"key":698},{"attd":"fr","num":2,"tp1":"cu","vl1":"GO","cn1":1250,"key":829},{"attd":"fr","num":3,"tp1":"cu","vl1":"EN","cn1":2,"key":728},{"attd":"fr","num":4,"tp1":"c